--- a/resultados/exploracion/sum_colapsos.xlsx
+++ b/resultados/exploracion/sum_colapsos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,227 @@
         <v>29</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EstFija10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1587</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EstFija20</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2186</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EstFija30</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2738</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FullFlex</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>45</v>
+      </c>
+      <c r="C6" t="n">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ZEsp2Prod</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>163</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>girardot_espinal</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3841</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bogota_Fusa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4085</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cali_Jamundi</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4099</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ibague_Armenia</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3777</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Palmira_Caloto</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4069</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Villeta_Bogota</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3916</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honda_Mariquita</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3789</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Madrid_Girardot</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3932</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Itagui_La_Felisa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3365</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>La_Felisa_Cartago</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3647</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Manizales_Pereira</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3931</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mariquita_Manizales</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3813</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
